--- a/results/ROI_greedy/dataset_06/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_06/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I2">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.4393939393939394</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="O2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q2">
-        <v>1.140723774018237</v>
+        <v>1.005086230657286</v>
       </c>
       <c r="R2">
-        <v>30.63756300543466</v>
+        <v>40.71517108319197</v>
       </c>
       <c r="S2">
-        <v>3.129032258064516</v>
+        <v>2.732142857142857</v>
       </c>
       <c r="T2">
-        <v>4.625</v>
+        <v>3.435897435897436</v>
       </c>
       <c r="U2">
-        <v>1.531476370964389</v>
+        <v>1.234278153821265</v>
       </c>
       <c r="V2">
-        <v>16.74818903228489</v>
+        <v>46.86315200097067</v>
       </c>
       <c r="W2">
-        <v>847</v>
+        <v>781</v>
       </c>
       <c r="X2">
         <v>876</v>
       </c>
       <c r="Y2">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="Z2">
-        <v>1.045679012345679</v>
+        <v>1.002567394094994</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.7619047619047619</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="O3">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="P3">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="Q3">
-        <v>1.131402111491101</v>
+        <v>0.9959581346080264</v>
       </c>
       <c r="R3">
-        <v>38.74391554035598</v>
+        <v>58.33143296214183</v>
       </c>
       <c r="S3">
-        <v>3.1</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="T3">
-        <v>4.2</v>
+        <v>3.944444444444445</v>
       </c>
       <c r="U3">
-        <v>1.435084525289323</v>
+        <v>1.372308119145151</v>
       </c>
       <c r="V3">
-        <v>35.29830949421354</v>
+        <v>56.59690771077457</v>
       </c>
       <c r="W3">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="X3">
         <v>990</v>
       </c>
       <c r="Y3">
-        <v>906</v>
+        <v>850</v>
       </c>
       <c r="Z3">
-        <v>1.022075055187638</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.8793103448275862</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="O4">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="P4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q4">
-        <v>1.076139432816051</v>
+        <v>1.003302108863785</v>
       </c>
       <c r="R4">
-        <v>25.71581701551847</v>
+        <v>39.81838401249183</v>
       </c>
       <c r="S4">
-        <v>2.933333333333333</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="T4">
-        <v>3.55</v>
+        <v>3.025</v>
       </c>
       <c r="U4">
-        <v>1.266947603487324</v>
+        <v>1.106911091482805</v>
       </c>
       <c r="V4">
-        <v>25.66104793025351</v>
+        <v>36.72355634068781</v>
       </c>
       <c r="W4">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="X4">
         <v>752</v>
       </c>
       <c r="Y4">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="Z4">
-        <v>1.010086455331412</v>
+        <v>1.02130898021309</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I5">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.8865979381443299</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="O5">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="P5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <v>1.585145219865056</v>
+        <v>1.340250422618484</v>
       </c>
       <c r="R5">
-        <v>57.37136950337361</v>
+        <v>73.98747886907582</v>
       </c>
       <c r="S5">
-        <v>4.88</v>
+        <v>3.82</v>
       </c>
       <c r="T5">
-        <v>5.3</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="U5">
-        <v>1.667706820558076</v>
+        <v>1.403993938219291</v>
       </c>
       <c r="V5">
-        <v>52.64586358883848</v>
+        <v>70.03225459478976</v>
       </c>
       <c r="W5">
-        <v>1021</v>
+        <v>978</v>
       </c>
       <c r="X5">
         <v>1107</v>
       </c>
       <c r="Y5">
-        <v>1010</v>
+        <v>966</v>
       </c>
       <c r="Z5">
-        <v>1.010891089108911</v>
+        <v>1.012422360248447</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I6">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="O6">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q6">
-        <v>1.845826690498331</v>
+        <v>1.241713132308783</v>
       </c>
       <c r="R6">
-        <v>41.85007971402003</v>
+        <v>47.57318783995746</v>
       </c>
       <c r="S6">
-        <v>6.333333333333333</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="T6">
-        <v>6.333333333333333</v>
+        <v>4.782608695652174</v>
       </c>
       <c r="U6">
-        <v>1.845826690498331</v>
+        <v>1.564986149863266</v>
       </c>
       <c r="V6">
-        <v>41.85007971402003</v>
+        <v>51.00531855314487</v>
       </c>
       <c r="W6">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="X6">
         <v>802</v>
       </c>
       <c r="Y6">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.012747875354108</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.7256637168141593</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="O7">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <v>1.36031887471663</v>
+        <v>1.33828514193353</v>
       </c>
       <c r="R7">
-        <v>59.94756388605143</v>
+        <v>94.34975091625408</v>
       </c>
       <c r="S7">
-        <v>3.897435897435897</v>
+        <v>3.8125</v>
       </c>
       <c r="T7">
-        <v>5.823529411764706</v>
+        <v>4.928571428571429</v>
       </c>
       <c r="U7">
-        <v>1.761906506078374</v>
+        <v>1.595049174982001</v>
       </c>
       <c r="V7">
-        <v>52.04758939666765</v>
+        <v>98.00793465075597</v>
       </c>
       <c r="W7">
-        <v>955</v>
+        <v>872</v>
       </c>
       <c r="X7">
         <v>1037</v>
       </c>
       <c r="Y7">
-        <v>924</v>
+        <v>857</v>
       </c>
       <c r="Z7">
-        <v>1.033549783549784</v>
+        <v>1.017502917152859</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.7142857142857143</v>
+        <v>0.881578947368421</v>
       </c>
       <c r="O8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="P8">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q8">
-        <v>0.9921288082656595</v>
+        <v>0.878550403891308</v>
       </c>
       <c r="R8">
-        <v>23.25974932723324</v>
+        <v>28.55827818986937</v>
       </c>
       <c r="S8">
-        <v>2.696969696969697</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="T8">
-        <v>3.105263157894737</v>
+        <v>2.522727272727273</v>
       </c>
       <c r="U8">
-        <v>1.133098464739279</v>
+        <v>0.925340567394073</v>
       </c>
       <c r="V8">
-        <v>18.4711291699537</v>
+        <v>26.28501503466079</v>
       </c>
       <c r="W8">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="X8">
         <v>705</v>
       </c>
       <c r="Y8">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="Z8">
-        <v>1.024653312788906</v>
+        <v>1.014308426073132</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I9">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.7564102564102564</v>
+        <v>0.84375</v>
       </c>
       <c r="O9">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="P9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Q9">
-        <v>1.47962630091211</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="R9">
-        <v>43.96859507902148</v>
+        <v>65.63441676174747</v>
       </c>
       <c r="S9">
-        <v>4.391304347826087</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="T9">
-        <v>15.75</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="U9">
-        <v>2.756840365271642</v>
+        <v>2.164963715117998</v>
       </c>
       <c r="V9">
-        <v>47.97263853891343</v>
+        <v>77.69050798834803</v>
       </c>
       <c r="W9">
-        <v>837</v>
+        <v>788</v>
       </c>
       <c r="X9">
         <v>896</v>
       </c>
       <c r="Y9">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="Z9">
-        <v>1.023227383863081</v>
+        <v>1.026041666666667</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I10">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="O10">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="Q10">
-        <v>1.280933845462064</v>
+        <v>1.042653635020065</v>
       </c>
       <c r="R10">
-        <v>26.38132309075872</v>
+        <v>38.90997188401681</v>
       </c>
       <c r="S10">
-        <v>3.6</v>
+        <v>2.836734693877551</v>
       </c>
       <c r="T10">
-        <v>3.6</v>
+        <v>3.179487179487179</v>
       </c>
       <c r="U10">
-        <v>1.280933845462064</v>
+        <v>1.15671991947539</v>
       </c>
       <c r="V10">
-        <v>26.38132309075872</v>
+        <v>39.88792314045978</v>
       </c>
       <c r="W10">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="X10">
         <v>890</v>
       </c>
       <c r="Y10">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>1.00625</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I11">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9325842696629213</v>
+        <v>0.8413793103448276</v>
       </c>
       <c r="O11">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>1.695615608675153</v>
+        <v>1.551374111479339</v>
       </c>
       <c r="R11">
-        <v>55.08768782649695</v>
+        <v>84.49640965230577</v>
       </c>
       <c r="S11">
-        <v>5.45</v>
+        <v>4.717948717948718</v>
       </c>
       <c r="T11">
-        <v>6.928571428571429</v>
+        <v>4.935483870967742</v>
       </c>
       <c r="U11">
-        <v>1.935653648888124</v>
+        <v>1.596450716907289</v>
       </c>
       <c r="V11">
-        <v>55.90084891556626</v>
+        <v>72.51002777587404</v>
       </c>
       <c r="W11">
-        <v>853</v>
+        <v>814</v>
       </c>
       <c r="X11">
         <v>936</v>
       </c>
       <c r="Y11">
-        <v>847</v>
+        <v>791</v>
       </c>
       <c r="Z11">
-        <v>1.007083825265644</v>
+        <v>1.029077117572693</v>
       </c>
     </row>
   </sheetData>
